--- a/config_8.3/act_ty_ldfd_config.xlsx
+++ b/config_8.3/act_ty_ldfd_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
@@ -52,14 +52,15 @@
     <t>gift_ids|      shoppingp config礼包id</t>
   </si>
   <si>
-    <t>10571,10572,10573,10574,10575,10576,10577</t>
-  </si>
-  <si>
     <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10577,10576,10575,10574,10573,10572</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -124,6 +125,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -481,17 +485,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="52.25" customWidth="1"/>
+    <col min="5" max="5" width="52.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -507,7 +511,7 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -519,14 +523,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1000653</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_8.3/act_ty_ldfd_config.xlsx
+++ b/config_8.3/act_ty_ldfd_config.xlsx
@@ -60,7 +60,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10577,10576,10575,10574,10573,10572</t>
+    <t>10577,10576,10575,10574,10573,10572,10571</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
